--- a/Описание методов/Случай с плохими и хорошими студентами.xlsx
+++ b/Описание методов/Случай с плохими и хорошими студентами.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Учеба. Никита\Курсовая 3 курс\Описание методов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист15" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="42">
   <si>
     <t>Альфа</t>
   </si>
@@ -206,8 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,13 +527,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -550,11 +551,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -572,9 +573,9 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -592,9 +593,9 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -612,11 +613,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -634,106 +635,106 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1518,13 +1519,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1542,11 +1543,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1564,9 +1565,9 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1584,9 +1585,9 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1604,11 +1605,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1626,108 +1627,108 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2039,11 +2040,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2062,37 +2068,29 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,40 +2145,60 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
